--- a/Férias.xlsx
+++ b/Férias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/vinicius_s_duarte_petrobras_com_br/Documents/Área de Trabalho/Teste_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F27C686-80F3-4DBF-A12E-FE59AB9B65AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4FA6F3C-6A0B-4FBC-94DA-2FC748905E27}"/>
   </bookViews>
@@ -1107,10 +1107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,9 +1234,15 @@
       <c r="N2" s="6">
         <v>16</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
       <c r="R2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1331,12 +1337,24 @@
       <c r="K4" s="6">
         <v>30</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
       <c r="R4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1384,9 +1402,15 @@
       <c r="N5" s="6">
         <v>12</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
       <c r="R5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1425,12 +1449,24 @@
       <c r="K6" s="6">
         <v>30</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
       <c r="R6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1534,9 +1570,15 @@
       <c r="N8" s="6">
         <v>15</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
       <c r="R8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1575,12 +1617,24 @@
       <c r="K9" s="6">
         <v>30</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
       <c r="R9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1628,9 +1682,15 @@
       <c r="N10" s="6">
         <v>9</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
       <c r="R10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1958,9 +2018,15 @@
       <c r="N16" s="6">
         <v>15</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
       <c r="R16" s="6" t="s">
         <v>19</v>
       </c>
@@ -2008,9 +2074,15 @@
       <c r="N17" s="6">
         <v>12</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
       <c r="R17" s="6" t="s">
         <v>19</v>
       </c>
@@ -2049,12 +2121,24 @@
       <c r="K18" s="6">
         <v>30</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
       <c r="R18" s="6" t="s">
         <v>19</v>
       </c>
@@ -2149,12 +2233,24 @@
       <c r="K20" s="6">
         <v>30</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
       <c r="R20" s="6" t="s">
         <v>19</v>
       </c>
@@ -2314,9 +2410,15 @@
       <c r="N23" s="6">
         <v>5</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
       <c r="R23" s="6" t="s">
         <v>19</v>
       </c>
@@ -2355,12 +2457,24 @@
       <c r="K24" s="6">
         <v>30</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
       <c r="R24" s="6" t="s">
         <v>19</v>
       </c>
@@ -2408,9 +2522,15 @@
       <c r="N25" s="6">
         <v>18</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
       <c r="R25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2449,12 +2569,24 @@
       <c r="K26" s="6">
         <v>30</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
       <c r="R26" s="6" t="s">
         <v>19</v>
       </c>
@@ -2614,9 +2746,15 @@
       <c r="N29" s="6">
         <v>10</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
       <c r="R29" s="6" t="s">
         <v>19</v>
       </c>
@@ -2720,9 +2858,15 @@
       <c r="N31" s="6">
         <v>25</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
       <c r="R31" s="6" t="s">
         <v>19</v>
       </c>
@@ -2761,12 +2905,24 @@
       <c r="K32" s="6">
         <v>30</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
       <c r="R32" s="6" t="s">
         <v>19</v>
       </c>
@@ -2814,9 +2970,15 @@
       <c r="N33" s="6">
         <v>18</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
       <c r="R33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2864,9 +3026,15 @@
       <c r="N34" s="6">
         <v>8</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
       <c r="R34" s="6" t="s">
         <v>19</v>
       </c>
@@ -2905,12 +3073,24 @@
       <c r="K35" s="6">
         <v>30</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
       <c r="R35" s="6" t="s">
         <v>19</v>
       </c>
@@ -2958,9 +3138,15 @@
       <c r="N36" s="6">
         <v>15</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
       <c r="R36" s="6" t="s">
         <v>19</v>
       </c>
@@ -3055,12 +3241,24 @@
       <c r="K38" s="6">
         <v>30</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
       <c r="R38" s="6" t="s">
         <v>19</v>
       </c>
@@ -3074,37 +3272,147 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
       <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="javascript:__doPostBack('grwRegistros','Sort$Matricula')" xr:uid="{67A25FFD-7943-46B3-8C32-1E6F7FB9D9EF}"/>
-    <hyperlink ref="B1" r:id="rId2" display="javascript:__doPostBack('grwRegistros','Sort$NomeEmpregado')" xr:uid="{EBFB56D1-0D84-4083-A9BD-7B36E64B9619}"/>
-    <hyperlink ref="C1" r:id="rId3" display="javascript:__doPostBack('grwRegistros','Sort$InicioAquisitivo')" xr:uid="{6F252B68-04E3-4283-A500-B67A4CB09891}"/>
-    <hyperlink ref="D1" r:id="rId4" display="javascript:__doPostBack('grwRegistros','Sort$InicioConcessivo')" xr:uid="{6A0F2983-CB72-45F6-BBE7-617DC450EABF}"/>
-    <hyperlink ref="E1" r:id="rId5" display="javascript:__doPostBack('grwRegistros','Sort$FimConcessivo')" xr:uid="{BB8A3A87-009D-4BDF-9CAD-5C48D40C120A}"/>
-    <hyperlink ref="F1" r:id="rId6" display="javascript:__doPostBack('grwRegistros','Sort$Adiantamento13')" xr:uid="{97F2873C-57DA-4E5F-BFB7-BDC09833F2D1}"/>
-    <hyperlink ref="G1" r:id="rId7" display="javascript:__doPostBack('grwRegistros','Sort$Abono')" xr:uid="{A9D053B1-3538-4163-8413-22251869B22C}"/>
-    <hyperlink ref="H1" r:id="rId8" display="javascript:__doPostBack('grwRegistros','Sort$Parcelado')" xr:uid="{8C1A73E3-DC7C-4340-9883-DC10FAEAA763}"/>
-    <hyperlink ref="I1" r:id="rId9" display="javascript:__doPostBack('grwRegistros','Sort$InicioPeriodo1')" xr:uid="{13D03825-B398-4282-AE8D-508CB6AF4E49}"/>
-    <hyperlink ref="J1" r:id="rId10" display="javascript:__doPostBack('grwRegistros','Sort$FimPeriodo1')" xr:uid="{184F54DE-F045-464E-90A2-4704E935C130}"/>
-    <hyperlink ref="K1" r:id="rId11" display="javascript:__doPostBack('grwRegistros','Sort$QtdDiasPeriodo1')" xr:uid="{2F22BFC1-2FF2-4C3F-BA72-4DFBB10822C0}"/>
-    <hyperlink ref="L1" r:id="rId12" display="javascript:__doPostBack('grwRegistros','Sort$InicioPeriodo2')" xr:uid="{021E046F-A330-474C-90BA-E23B4CAEC42A}"/>
-    <hyperlink ref="M1" r:id="rId13" display="javascript:__doPostBack('grwRegistros','Sort$FimPeriodo2')" xr:uid="{FB630E56-9338-476F-807D-3C8AAAA9CF19}"/>
-    <hyperlink ref="N1" r:id="rId14" display="javascript:__doPostBack('grwRegistros','Sort$QtdDiasPeriodo2')" xr:uid="{EEA04B51-EE2C-4938-B451-F61BD5628ED2}"/>
-    <hyperlink ref="O1" r:id="rId15" display="javascript:__doPostBack('grwRegistros','Sort$InicioPeriodo3')" xr:uid="{802B35A4-9B7F-4E2C-8180-6AA49A44D1C3}"/>
-    <hyperlink ref="P1" r:id="rId16" display="javascript:__doPostBack('grwRegistros','Sort$FimPeriodo3')" xr:uid="{3281DE0C-C9E9-4042-A920-201E88468FBE}"/>
-    <hyperlink ref="Q1" r:id="rId17" display="javascript:__doPostBack('grwRegistros','Sort$QtdDiasPeriodo3')" xr:uid="{F9398F9C-9172-4DED-BC4E-644C85CC0C7C}"/>
-    <hyperlink ref="R1" r:id="rId18" display="javascript:__doPostBack('grwRegistros','Sort$LancadaNoSap')" xr:uid="{ECECF266-2127-4C1C-B978-29DEDF71BF2E}"/>
+    <hyperlink ref="A1" r:id="rId1" display="javascript:__doPostBack('grwRegistros','Sort$Matricula')" xr:uid="{0CCEC443-13CC-49FB-A7F9-55533D6F6E17}"/>
+    <hyperlink ref="B1" r:id="rId2" display="javascript:__doPostBack('grwRegistros','Sort$NomeEmpregado')" xr:uid="{DD3708AD-78DA-4F25-9430-DDD7CC4B6002}"/>
+    <hyperlink ref="C1" r:id="rId3" display="javascript:__doPostBack('grwRegistros','Sort$InicioAquisitivo')" xr:uid="{6F3F570F-201B-4DB6-A118-2FD27476882E}"/>
+    <hyperlink ref="D1" r:id="rId4" display="javascript:__doPostBack('grwRegistros','Sort$InicioConcessivo')" xr:uid="{7042BE23-B115-458B-9C2B-9D09E47D6DF2}"/>
+    <hyperlink ref="E1" r:id="rId5" display="javascript:__doPostBack('grwRegistros','Sort$FimConcessivo')" xr:uid="{FB2CBAFB-B058-4DF4-A864-4CF1E3F2160D}"/>
+    <hyperlink ref="F1" r:id="rId6" display="javascript:__doPostBack('grwRegistros','Sort$Adiantamento13')" xr:uid="{C8941A18-200E-4A0D-B8EB-4FED617688EC}"/>
+    <hyperlink ref="G1" r:id="rId7" display="javascript:__doPostBack('grwRegistros','Sort$Abono')" xr:uid="{4C1E024A-6947-4821-9525-0BB6FF41AC8B}"/>
+    <hyperlink ref="H1" r:id="rId8" display="javascript:__doPostBack('grwRegistros','Sort$Parcelado')" xr:uid="{69C83EF8-5AF3-4701-89EA-E588CC5C91E1}"/>
+    <hyperlink ref="I1" r:id="rId9" display="javascript:__doPostBack('grwRegistros','Sort$InicioPeriodo1')" xr:uid="{3B693F0A-EA0B-4344-A328-78DA71A3D42A}"/>
+    <hyperlink ref="J1" r:id="rId10" display="javascript:__doPostBack('grwRegistros','Sort$FimPeriodo1')" xr:uid="{C6A0664C-2B67-4D0E-B7E6-A6CD7A45565A}"/>
+    <hyperlink ref="K1" r:id="rId11" display="javascript:__doPostBack('grwRegistros','Sort$QtdDiasPeriodo1')" xr:uid="{52E490FF-5157-4B23-9BD2-69AE59FAEA30}"/>
+    <hyperlink ref="L1" r:id="rId12" display="javascript:__doPostBack('grwRegistros','Sort$InicioPeriodo2')" xr:uid="{F96AE58A-33C5-47E0-A5BB-D495CBF40E6E}"/>
+    <hyperlink ref="M1" r:id="rId13" display="javascript:__doPostBack('grwRegistros','Sort$FimPeriodo2')" xr:uid="{AB399AE2-4FFD-44C9-8CB0-3E90052230C5}"/>
+    <hyperlink ref="N1" r:id="rId14" display="javascript:__doPostBack('grwRegistros','Sort$QtdDiasPeriodo2')" xr:uid="{6637601A-74F7-4E34-95C4-6F4415013CE0}"/>
+    <hyperlink ref="O1" r:id="rId15" display="javascript:__doPostBack('grwRegistros','Sort$InicioPeriodo3')" xr:uid="{A9E98E76-46AC-4C2D-8000-9E7735ADE70A}"/>
+    <hyperlink ref="P1" r:id="rId16" display="javascript:__doPostBack('grwRegistros','Sort$FimPeriodo3')" xr:uid="{F9A2C9C1-20FB-429B-B82C-D471ABB73E95}"/>
+    <hyperlink ref="Q1" r:id="rId17" display="javascript:__doPostBack('grwRegistros','Sort$QtdDiasPeriodo3')" xr:uid="{07ADB22D-DDC6-4AC6-9D39-BDC5B45187E8}"/>
+    <hyperlink ref="R1" r:id="rId18" display="javascript:__doPostBack('grwRegistros','Sort$LancadaNoSap')" xr:uid="{B9386BCE-DA58-49DE-BC10-298AFA3849B5}"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter>

--- a/Férias.xlsx
+++ b/Férias.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/vinicius_s_duarte_petrobras_com_br/Documents/Área de Trabalho/Teste_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F27C686-80F3-4DBF-A12E-FE59AB9B65AD}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBFEBB55-22B6-4835-9D7D-C6F063CB1EAC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4FA6F3C-6A0B-4FBC-94DA-2FC748905E27}"/>
   </bookViews>
   <sheets>
     <sheet name="grwRegistros_DVPX_20250915_1257" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grwRegistros_DVPX_20250915_1257!$A$1:$R$42</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1109,8 +1112,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,6 +3397,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R42" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="javascript:__doPostBack('grwRegistros','Sort$Matricula')" xr:uid="{0CCEC443-13CC-49FB-A7F9-55533D6F6E17}"/>
     <hyperlink ref="B1" r:id="rId2" display="javascript:__doPostBack('grwRegistros','Sort$NomeEmpregado')" xr:uid="{DD3708AD-78DA-4F25-9430-DDD7CC4B6002}"/>

--- a/Férias.xlsx
+++ b/Férias.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/vinicius_s_duarte_petrobras_com_br/Documents/Área de Trabalho/Teste_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBFEBB55-22B6-4835-9D7D-C6F063CB1EAC}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D86C7B2-9A25-4ECF-9A15-EE926EB6CDF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4FA6F3C-6A0B-4FBC-94DA-2FC748905E27}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4FA6F3C-6A0B-4FBC-94DA-2FC748905E27}"/>
   </bookViews>
   <sheets>
     <sheet name="grwRegistros_DVPX_20250915_1257" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grwRegistros_DVPX_20250915_1257!$A$1:$R$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grwRegistros_DVPX_20250915_1257!$A$1:$R$38</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="64">
   <si>
     <t>Matrícula</t>
   </si>
@@ -163,9 +176,6 @@
     <t>PABLO VICTOR DE SOUZA FERREIRA</t>
   </si>
   <si>
-    <t>Pedro Henrique Cobelas Imbrosio</t>
-  </si>
-  <si>
     <t>PIETRO SERPA KONZGEN</t>
   </si>
   <si>
@@ -175,9 +185,6 @@
     <t>Rafael Lusquinos Perez</t>
   </si>
   <si>
-    <t>Rafael Provencano Venturini</t>
-  </si>
-  <si>
     <t>Rafael Sales Teles</t>
   </si>
   <si>
@@ -191,13 +198,43 @@
   </si>
   <si>
     <t>Wellington Pereira Marques</t>
+  </si>
+  <si>
+    <t>Andre Luis Rodrigues Larangeira</t>
+  </si>
+  <si>
+    <t>Fabiano Felix Santos de Lima</t>
+  </si>
+  <si>
+    <t>Aguardando Aprovação</t>
+  </si>
+  <si>
+    <t>JULIO CESAR BENTO</t>
+  </si>
+  <si>
+    <t>Julio Cesar de Souza Fassarela</t>
+  </si>
+  <si>
+    <t>Luiz Gustavo Carrasco Serpa</t>
+  </si>
+  <si>
+    <t>Reginaldo da Silva Alves</t>
+  </si>
+  <si>
+    <t>RENAN SOUSA DOS SANTOS GONCALVES</t>
+  </si>
+  <si>
+    <t>Tadeu Menegussi Neves</t>
+  </si>
+  <si>
+    <t>TAYNAN ROGER SILVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +391,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +578,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEEF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF5F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -712,7 +767,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
@@ -721,17 +776,23 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1110,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1199,7 @@
     <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,653 +1298,575 @@
       <c r="N2" s="6">
         <v>16</v>
       </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>9612082</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>45394</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>45759</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>46123</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8">
         <v>45908</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <v>45917</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <v>10</v>
       </c>
-      <c r="L3" s="5">
-        <v>45971</v>
-      </c>
-      <c r="M3" s="5">
-        <v>45985</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="L3" s="8">
+        <v>46006</v>
+      </c>
+      <c r="M3" s="8">
+        <v>46010</v>
+      </c>
+      <c r="N3" s="9">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8">
+        <v>46027</v>
+      </c>
+      <c r="P3" s="8">
+        <v>46041</v>
+      </c>
+      <c r="Q3" s="9">
         <v>15</v>
       </c>
-      <c r="O3" s="5">
-        <v>46006</v>
-      </c>
-      <c r="P3" s="5">
-        <v>46010</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>5</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
+        <v>9724817</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45479</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45844</v>
+      </c>
+      <c r="E4" s="5">
+        <v>46208</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5">
+        <v>46174</v>
+      </c>
+      <c r="J4" s="5">
+        <v>46193</v>
+      </c>
+      <c r="K4" s="6">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>1386344</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="8">
         <v>45574</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="8">
         <v>45939</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="8">
         <v>46303</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8">
         <v>45943</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="8">
         <v>45972</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K5" s="9">
         <v>30</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4606399</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5">
-        <v>45349</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45715</v>
-      </c>
-      <c r="E5" s="5">
-        <v>46079</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45908</v>
-      </c>
-      <c r="J5" s="5">
-        <v>45925</v>
-      </c>
-      <c r="K5" s="6">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5">
-        <v>45985</v>
-      </c>
-      <c r="M5" s="5">
-        <v>45996</v>
-      </c>
-      <c r="N5" s="6">
-        <v>12</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
+        <v>4606399</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45349</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45715</v>
+      </c>
+      <c r="E6" s="5">
+        <v>46079</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45908</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45925</v>
+      </c>
+      <c r="K6" s="6">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45985</v>
+      </c>
+      <c r="M6" s="5">
+        <v>45996</v>
+      </c>
+      <c r="N6" s="6">
+        <v>12</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>9643359</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="8">
         <v>45393</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="8">
         <v>45758</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="8">
         <v>46122</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8">
         <v>46006</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="8">
         <v>46035</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K7" s="9">
         <v>30</v>
       </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2550029</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45341</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45707</v>
-      </c>
-      <c r="E7" s="5">
-        <v>46071</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45740</v>
-      </c>
-      <c r="J7" s="5">
-        <v>45744</v>
-      </c>
-      <c r="K7" s="6">
-        <v>5</v>
-      </c>
-      <c r="L7" s="5">
-        <v>45782</v>
-      </c>
-      <c r="M7" s="5">
-        <v>45787</v>
-      </c>
-      <c r="N7" s="6">
-        <v>6</v>
-      </c>
-      <c r="O7" s="5">
-        <v>45950</v>
-      </c>
-      <c r="P7" s="5">
-        <v>45968</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>19</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>4606673</v>
+        <v>2550029</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5">
-        <v>45455</v>
+        <v>45341</v>
       </c>
       <c r="D8" s="5">
-        <v>45820</v>
+        <v>45707</v>
       </c>
       <c r="E8" s="5">
-        <v>46184</v>
+        <v>46071</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="5">
-        <v>45824</v>
+        <v>45740</v>
       </c>
       <c r="J8" s="5">
-        <v>45828</v>
+        <v>45744</v>
       </c>
       <c r="K8" s="6">
         <v>5</v>
       </c>
       <c r="L8" s="5">
+        <v>45782</v>
+      </c>
+      <c r="M8" s="5">
+        <v>45787</v>
+      </c>
+      <c r="N8" s="6">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45950</v>
+      </c>
+      <c r="P8" s="5">
+        <v>45968</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>19</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4606673</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45455</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45820</v>
+      </c>
+      <c r="E9" s="8">
+        <v>46184</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45824</v>
+      </c>
+      <c r="J9" s="8">
+        <v>45828</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5</v>
+      </c>
+      <c r="L9" s="8">
         <v>46034</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M9" s="8">
         <v>46048</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N9" s="9">
         <v>15</v>
       </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4608474</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45617</v>
-      </c>
-      <c r="D9" s="5">
-        <v>45982</v>
-      </c>
-      <c r="E9" s="5">
-        <v>46346</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="5">
-        <v>46006</v>
-      </c>
-      <c r="J9" s="5">
-        <v>46035</v>
-      </c>
-      <c r="K9" s="6">
-        <v>30</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <v>4608474</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45617</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45982</v>
+      </c>
+      <c r="E10" s="5">
+        <v>46346</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5">
+        <v>46006</v>
+      </c>
+      <c r="J10" s="5">
+        <v>46035</v>
+      </c>
+      <c r="K10" s="6">
+        <v>30</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>4604623</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="8">
         <v>45519</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="8">
         <v>45884</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="8">
         <v>46248</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="8">
         <v>46001</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="8">
         <v>46021</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="9">
         <v>21</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="8">
         <v>46118</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M11" s="8">
         <v>46126</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N11" s="9">
         <v>9</v>
       </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9886449</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45500</v>
-      </c>
-      <c r="D11" s="5">
-        <v>45865</v>
-      </c>
-      <c r="E11" s="5">
-        <v>46229</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="5">
-        <v>46043</v>
-      </c>
-      <c r="J11" s="5">
-        <v>46056</v>
-      </c>
-      <c r="K11" s="6">
-        <v>14</v>
-      </c>
-      <c r="L11" s="5">
-        <v>46146</v>
-      </c>
-      <c r="M11" s="5">
-        <v>46150</v>
-      </c>
-      <c r="N11" s="6">
-        <v>5</v>
-      </c>
-      <c r="O11" s="5">
-        <v>46217</v>
-      </c>
-      <c r="P11" s="5">
-        <v>46227</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>11</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <v>9886449</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45500</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45865</v>
+      </c>
+      <c r="E12" s="5">
+        <v>46229</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5">
+        <v>46076</v>
+      </c>
+      <c r="J12" s="5">
+        <v>46087</v>
+      </c>
+      <c r="K12" s="6">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5">
+        <v>46210</v>
+      </c>
+      <c r="M12" s="5">
+        <v>46227</v>
+      </c>
+      <c r="N12" s="6">
+        <v>18</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>4606078</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="8">
         <v>45349</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="8">
         <v>45715</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="8">
         <v>46079</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="F13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="8">
         <v>45831</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="8">
         <v>45845</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K13" s="9">
         <v>15</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L13" s="8">
         <v>45936</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M13" s="8">
         <v>45945</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N13" s="9">
         <v>10</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O13" s="8">
         <v>45985</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P13" s="8">
         <v>45989</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q13" s="9">
         <v>5</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>4609742</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5">
-        <v>45383</v>
-      </c>
-      <c r="D13" s="5">
-        <v>45748</v>
-      </c>
-      <c r="E13" s="5">
-        <v>46112</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="5">
-        <v>45945</v>
-      </c>
-      <c r="J13" s="5">
-        <v>45954</v>
-      </c>
-      <c r="K13" s="6">
-        <v>10</v>
-      </c>
-      <c r="L13" s="5">
-        <v>46000</v>
-      </c>
-      <c r="M13" s="5">
-        <v>46014</v>
-      </c>
-      <c r="N13" s="6">
-        <v>15</v>
-      </c>
-      <c r="O13" s="5">
-        <v>46062</v>
-      </c>
-      <c r="P13" s="5">
-        <v>46066</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>5</v>
-      </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>4606694</v>
+        <v>4609742</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5">
-        <v>45455</v>
+        <v>45383</v>
       </c>
       <c r="D14" s="5">
-        <v>45820</v>
+        <v>45748</v>
       </c>
       <c r="E14" s="5">
-        <v>46184</v>
+        <v>46112</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>18</v>
@@ -1892,334 +1875,310 @@
         <v>18</v>
       </c>
       <c r="I14" s="5">
-        <v>45950</v>
+        <v>45945</v>
       </c>
       <c r="J14" s="5">
-        <v>45960</v>
+        <v>45954</v>
       </c>
       <c r="K14" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="5">
-        <v>46076</v>
+        <v>46000</v>
       </c>
       <c r="M14" s="5">
-        <v>46080</v>
+        <v>46014</v>
       </c>
       <c r="N14" s="6">
+        <v>15</v>
+      </c>
+      <c r="O14" s="5">
+        <v>46062</v>
+      </c>
+      <c r="P14" s="5">
+        <v>46066</v>
+      </c>
+      <c r="Q14" s="6">
         <v>5</v>
       </c>
-      <c r="O14" s="5">
-        <v>46146</v>
-      </c>
-      <c r="P14" s="5">
-        <v>46159</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>14</v>
-      </c>
       <c r="R14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>9885545</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45469</v>
-      </c>
-      <c r="D15" s="5">
-        <v>45834</v>
-      </c>
-      <c r="E15" s="5">
-        <v>46198</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="5">
-        <v>45936</v>
-      </c>
-      <c r="J15" s="5">
-        <v>45945</v>
-      </c>
-      <c r="K15" s="6">
-        <v>10</v>
-      </c>
-      <c r="L15" s="5">
-        <v>46008</v>
-      </c>
-      <c r="M15" s="5">
-        <v>46022</v>
-      </c>
-      <c r="N15" s="6">
-        <v>15</v>
-      </c>
-      <c r="O15" s="5">
-        <v>46181</v>
-      </c>
-      <c r="P15" s="5">
-        <v>46185</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>5</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>19</v>
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>9814374</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="8">
+        <v>45396</v>
+      </c>
+      <c r="D15" s="8">
+        <v>45761</v>
+      </c>
+      <c r="E15" s="8">
+        <v>46125</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8">
+        <v>45946</v>
+      </c>
+      <c r="J15" s="8">
+        <v>45975</v>
+      </c>
+      <c r="K15" s="9">
+        <v>30</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <v>4606694</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45455</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45820</v>
+      </c>
+      <c r="E16" s="5">
+        <v>46184</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45950</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45960</v>
+      </c>
+      <c r="K16" s="6">
+        <v>11</v>
+      </c>
+      <c r="L16" s="5">
+        <v>46076</v>
+      </c>
+      <c r="M16" s="5">
+        <v>46080</v>
+      </c>
+      <c r="N16" s="6">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5">
+        <v>46146</v>
+      </c>
+      <c r="P16" s="5">
+        <v>46159</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>14</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>9885545</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8">
+        <v>45469</v>
+      </c>
+      <c r="D17" s="8">
+        <v>45834</v>
+      </c>
+      <c r="E17" s="8">
+        <v>46198</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="8">
+        <v>45936</v>
+      </c>
+      <c r="J17" s="8">
+        <v>45945</v>
+      </c>
+      <c r="K17" s="9">
+        <v>10</v>
+      </c>
+      <c r="L17" s="8">
+        <v>46008</v>
+      </c>
+      <c r="M17" s="8">
+        <v>46022</v>
+      </c>
+      <c r="N17" s="9">
+        <v>15</v>
+      </c>
+      <c r="O17" s="8">
+        <v>46181</v>
+      </c>
+      <c r="P17" s="8">
+        <v>46185</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>5</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>4609453</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C18" s="5">
         <v>45383</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D18" s="5">
         <v>45748</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="5">
         <v>46112</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="5">
         <v>45838</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J18" s="5">
         <v>45842</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K18" s="6">
         <v>5</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L18" s="5">
         <v>46043</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M18" s="5">
         <v>46057</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N18" s="6">
         <v>15</v>
       </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>2493288</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C19" s="8">
         <v>45414</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D19" s="8">
         <v>45779</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E19" s="8">
         <v>46143</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="8">
         <v>45894</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J19" s="8">
         <v>45911</v>
       </c>
-      <c r="K17" s="6">
-        <v>18</v>
-      </c>
-      <c r="L17" s="5">
+      <c r="K19" s="9">
+        <v>18</v>
+      </c>
+      <c r="L19" s="8">
         <v>46055</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M19" s="8">
         <v>46066</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N19" s="9">
         <v>12</v>
       </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>4606426</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45349</v>
-      </c>
-      <c r="D18" s="5">
-        <v>45715</v>
-      </c>
-      <c r="E18" s="5">
-        <v>46079</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="5">
-        <v>45908</v>
-      </c>
-      <c r="J18" s="5">
-        <v>45937</v>
-      </c>
-      <c r="K18" s="6">
-        <v>30</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>9759290</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="5">
-        <v>45603</v>
-      </c>
-      <c r="D19" s="5">
-        <v>45968</v>
-      </c>
-      <c r="E19" s="5">
-        <v>46332</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="5">
-        <v>46043</v>
-      </c>
-      <c r="J19" s="5">
-        <v>46059</v>
-      </c>
-      <c r="K19" s="6">
-        <v>17</v>
-      </c>
-      <c r="L19" s="5">
-        <v>46226</v>
-      </c>
-      <c r="M19" s="5">
-        <v>46233</v>
-      </c>
-      <c r="N19" s="6">
-        <v>8</v>
-      </c>
-      <c r="O19" s="5">
-        <v>46300</v>
-      </c>
-      <c r="P19" s="5">
-        <v>46304</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>5</v>
-      </c>
-      <c r="R19" s="6" t="s">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>1385894</v>
+        <v>4606426</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5">
-        <v>45573</v>
+        <v>45349</v>
       </c>
       <c r="D20" s="5">
-        <v>45938</v>
+        <v>45715</v>
       </c>
       <c r="E20" s="5">
-        <v>46302</v>
+        <v>46079</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
@@ -2228,337 +2187,307 @@
         <v>17</v>
       </c>
       <c r="I20" s="5">
-        <v>46083</v>
+        <v>45908</v>
       </c>
       <c r="J20" s="5">
-        <v>46112</v>
+        <v>45937</v>
       </c>
       <c r="K20" s="6">
         <v>30</v>
       </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>9763566</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5">
-        <v>45268</v>
-      </c>
-      <c r="D21" s="5">
-        <v>45634</v>
-      </c>
-      <c r="E21" s="5">
-        <v>45998</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="5">
-        <v>45665</v>
-      </c>
-      <c r="J21" s="5">
-        <v>45674</v>
-      </c>
-      <c r="K21" s="6">
-        <v>10</v>
-      </c>
-      <c r="L21" s="5">
-        <v>45782</v>
-      </c>
-      <c r="M21" s="5">
-        <v>45796</v>
-      </c>
-      <c r="N21" s="6">
-        <v>15</v>
-      </c>
-      <c r="O21" s="5">
-        <v>45985</v>
-      </c>
-      <c r="P21" s="5">
-        <v>45989</v>
-      </c>
-      <c r="Q21" s="6">
+      <c r="A21" s="7">
+        <v>9759290</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45603</v>
+      </c>
+      <c r="D21" s="8">
+        <v>45968</v>
+      </c>
+      <c r="E21" s="8">
+        <v>46332</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="8">
+        <v>46043</v>
+      </c>
+      <c r="J21" s="8">
+        <v>46059</v>
+      </c>
+      <c r="K21" s="9">
+        <v>17</v>
+      </c>
+      <c r="L21" s="8">
+        <v>46226</v>
+      </c>
+      <c r="M21" s="8">
+        <v>46233</v>
+      </c>
+      <c r="N21" s="9">
+        <v>8</v>
+      </c>
+      <c r="O21" s="8">
+        <v>46300</v>
+      </c>
+      <c r="P21" s="8">
+        <v>46304</v>
+      </c>
+      <c r="Q21" s="9">
         <v>5</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>9897403</v>
+        <v>1385894</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5">
-        <v>45302</v>
+        <v>45573</v>
       </c>
       <c r="D22" s="5">
-        <v>45668</v>
+        <v>45938</v>
       </c>
       <c r="E22" s="5">
-        <v>46032</v>
+        <v>46302</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="5">
-        <v>45943</v>
+        <v>46230</v>
       </c>
       <c r="J22" s="5">
-        <v>45956</v>
+        <v>46259</v>
       </c>
       <c r="K22" s="6">
-        <v>14</v>
-      </c>
-      <c r="L22" s="5">
+        <v>30</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>9763566</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45268</v>
+      </c>
+      <c r="D23" s="8">
+        <v>45634</v>
+      </c>
+      <c r="E23" s="8">
+        <v>45998</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="8">
+        <v>45665</v>
+      </c>
+      <c r="J23" s="8">
+        <v>45674</v>
+      </c>
+      <c r="K23" s="9">
+        <v>10</v>
+      </c>
+      <c r="L23" s="8">
+        <v>45782</v>
+      </c>
+      <c r="M23" s="8">
+        <v>45796</v>
+      </c>
+      <c r="N23" s="9">
+        <v>15</v>
+      </c>
+      <c r="O23" s="8">
         <v>45985</v>
       </c>
-      <c r="M22" s="5">
-        <v>45995</v>
-      </c>
-      <c r="N22" s="6">
-        <v>11</v>
-      </c>
-      <c r="O22" s="5">
-        <v>46027</v>
-      </c>
-      <c r="P22" s="5">
-        <v>46031</v>
-      </c>
-      <c r="Q22" s="6">
+      <c r="P23" s="8">
+        <v>45989</v>
+      </c>
+      <c r="Q23" s="9">
         <v>5</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>4606309</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5">
-        <v>45349</v>
-      </c>
-      <c r="D23" s="5">
-        <v>45715</v>
-      </c>
-      <c r="E23" s="5">
-        <v>46079</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="5">
-        <v>45889</v>
-      </c>
-      <c r="J23" s="5">
-        <v>45903</v>
-      </c>
-      <c r="K23" s="6">
-        <v>15</v>
-      </c>
-      <c r="L23" s="5">
-        <v>45964</v>
-      </c>
-      <c r="M23" s="5">
-        <v>45968</v>
-      </c>
-      <c r="N23" s="6">
-        <v>5</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>229316</v>
+        <v>9897403</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="D24" s="5">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="E24" s="5">
+        <v>46032</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="5">
+        <v>45943</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45956</v>
+      </c>
+      <c r="K24" s="6">
+        <v>14</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45985</v>
+      </c>
+      <c r="M24" s="5">
+        <v>45995</v>
+      </c>
+      <c r="N24" s="6">
+        <v>11</v>
+      </c>
+      <c r="O24" s="5">
+        <v>46027</v>
+      </c>
+      <c r="P24" s="5">
         <v>46031</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="5">
-        <v>45936</v>
-      </c>
-      <c r="J24" s="5">
-        <v>45965</v>
-      </c>
-      <c r="K24" s="6">
-        <v>30</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
       <c r="Q24" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>4606323</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="A25" s="7">
+        <v>4606309</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="8">
         <v>45349</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>45715</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>46079</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="5">
-        <v>45859</v>
-      </c>
-      <c r="J25" s="5">
-        <v>45870</v>
-      </c>
-      <c r="K25" s="6">
-        <v>12</v>
-      </c>
-      <c r="L25" s="5">
-        <v>46013</v>
-      </c>
-      <c r="M25" s="5">
-        <v>46030</v>
-      </c>
-      <c r="N25" s="6">
-        <v>18</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="F25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45889</v>
+      </c>
+      <c r="J25" s="8">
+        <v>45903</v>
+      </c>
+      <c r="K25" s="9">
+        <v>15</v>
+      </c>
+      <c r="L25" s="8">
+        <v>45964</v>
+      </c>
+      <c r="M25" s="8">
+        <v>45968</v>
+      </c>
+      <c r="N25" s="9">
+        <v>5</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>9762281</v>
+        <v>4606246</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5">
-        <v>45634</v>
+        <v>45349</v>
       </c>
       <c r="D26" s="5">
-        <v>45999</v>
+        <v>45715</v>
       </c>
       <c r="E26" s="5">
-        <v>46363</v>
+        <v>46079</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>17</v>
@@ -2567,219 +2496,177 @@
         <v>46027</v>
       </c>
       <c r="J26" s="5">
-        <v>46056</v>
+        <v>46046</v>
       </c>
       <c r="K26" s="6">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>4608684</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45617</v>
+      </c>
+      <c r="D27" s="8">
+        <v>45982</v>
+      </c>
+      <c r="E27" s="8">
+        <v>46346</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="8">
+        <v>46036</v>
+      </c>
+      <c r="J27" s="8">
+        <v>46065</v>
+      </c>
+      <c r="K27" s="9">
         <v>30</v>
       </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>2504351</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="5">
-        <v>45446</v>
-      </c>
-      <c r="D27" s="5">
-        <v>45811</v>
-      </c>
-      <c r="E27" s="5">
-        <v>46175</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="5">
-        <v>45831</v>
-      </c>
-      <c r="J27" s="5">
-        <v>45844</v>
-      </c>
-      <c r="K27" s="6">
-        <v>14</v>
-      </c>
-      <c r="L27" s="5">
-        <v>46027</v>
-      </c>
-      <c r="M27" s="5">
-        <v>46031</v>
-      </c>
-      <c r="N27" s="6">
-        <v>5</v>
-      </c>
-      <c r="O27" s="5">
-        <v>46076</v>
-      </c>
-      <c r="P27" s="5">
-        <v>46086</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>11</v>
-      </c>
-      <c r="R27" s="6" t="s">
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>4606100</v>
+        <v>229316</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5">
+        <v>45301</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45667</v>
+      </c>
+      <c r="E28" s="5">
+        <v>46031</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45936</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45965</v>
+      </c>
+      <c r="K28" s="6">
+        <v>30</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>4606323</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="8">
         <v>45349</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="8">
         <v>45715</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="8">
         <v>46079</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="5">
-        <v>45798</v>
-      </c>
-      <c r="J28" s="5">
-        <v>45813</v>
-      </c>
-      <c r="K28" s="6">
-        <v>16</v>
-      </c>
-      <c r="L28" s="5">
-        <v>45917</v>
-      </c>
-      <c r="M28" s="5">
-        <v>45923</v>
-      </c>
-      <c r="N28" s="6">
-        <v>7</v>
-      </c>
-      <c r="O28" s="5">
-        <v>46029</v>
-      </c>
-      <c r="P28" s="5">
-        <v>46035</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>7</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>9814835</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="5">
-        <v>45396</v>
-      </c>
-      <c r="D29" s="5">
-        <v>45761</v>
-      </c>
-      <c r="E29" s="5">
-        <v>46125</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="5">
-        <v>45791</v>
-      </c>
-      <c r="J29" s="5">
-        <v>45810</v>
-      </c>
-      <c r="K29" s="6">
-        <v>20</v>
-      </c>
-      <c r="L29" s="5">
-        <v>45916</v>
-      </c>
-      <c r="M29" s="5">
-        <v>45925</v>
-      </c>
-      <c r="N29" s="6">
-        <v>10</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6" t="s">
+      <c r="F29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="8">
+        <v>45859</v>
+      </c>
+      <c r="J29" s="8">
+        <v>45870</v>
+      </c>
+      <c r="K29" s="9">
+        <v>12</v>
+      </c>
+      <c r="L29" s="8">
+        <v>46013</v>
+      </c>
+      <c r="M29" s="8">
+        <v>46030</v>
+      </c>
+      <c r="N29" s="9">
+        <v>18</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>4606308</v>
+        <v>4612228</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5">
-        <v>45349</v>
+        <v>45597</v>
       </c>
       <c r="D30" s="5">
-        <v>45715</v>
+        <v>45962</v>
       </c>
       <c r="E30" s="5">
-        <v>46079</v>
+        <v>46326</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>18</v>
@@ -2788,107 +2675,89 @@
         <v>18</v>
       </c>
       <c r="I30" s="5">
-        <v>45866</v>
+        <v>45985</v>
       </c>
       <c r="J30" s="5">
-        <v>45870</v>
+        <v>45996</v>
       </c>
       <c r="K30" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L30" s="5">
-        <v>45908</v>
+        <v>46202</v>
       </c>
       <c r="M30" s="5">
-        <v>45922</v>
+        <v>46219</v>
       </c>
       <c r="N30" s="6">
-        <v>15</v>
-      </c>
-      <c r="O30" s="5">
-        <v>46055</v>
-      </c>
-      <c r="P30" s="5">
-        <v>46064</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
       <c r="R30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>2551014</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="5">
-        <v>45341</v>
-      </c>
-      <c r="D31" s="5">
-        <v>45707</v>
-      </c>
-      <c r="E31" s="5">
-        <v>46071</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="5">
-        <v>45712</v>
-      </c>
-      <c r="J31" s="5">
-        <v>45716</v>
-      </c>
-      <c r="K31" s="6">
-        <v>5</v>
-      </c>
-      <c r="L31" s="5">
-        <v>45971</v>
-      </c>
-      <c r="M31" s="5">
-        <v>45995</v>
-      </c>
-      <c r="N31" s="6">
-        <v>25</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6" t="s">
+      <c r="A31" s="7">
+        <v>9762281</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="8">
+        <v>45634</v>
+      </c>
+      <c r="D31" s="8">
+        <v>45999</v>
+      </c>
+      <c r="E31" s="8">
+        <v>46363</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="8">
+        <v>46027</v>
+      </c>
+      <c r="J31" s="8">
+        <v>46056</v>
+      </c>
+      <c r="K31" s="9">
+        <v>30</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>9634222</v>
+        <v>2504351</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5">
-        <v>45573</v>
+        <v>45446</v>
       </c>
       <c r="D32" s="5">
-        <v>45938</v>
+        <v>45811</v>
       </c>
       <c r="E32" s="5">
-        <v>46302</v>
+        <v>46175</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>18</v>
@@ -2897,337 +2766,313 @@
         <v>18</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" s="5">
-        <v>45980</v>
+        <v>45831</v>
       </c>
       <c r="J32" s="5">
-        <v>46009</v>
+        <v>45844</v>
       </c>
       <c r="K32" s="6">
-        <v>30</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="L32" s="5">
+        <v>46027</v>
+      </c>
+      <c r="M32" s="5">
+        <v>46031</v>
       </c>
       <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O32" s="5">
+        <v>46076</v>
+      </c>
+      <c r="P32" s="5">
+        <v>46086</v>
       </c>
       <c r="Q32" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R32" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>4608780</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="5">
-        <v>45251</v>
-      </c>
-      <c r="D33" s="5">
-        <v>45617</v>
-      </c>
-      <c r="E33" s="5">
-        <v>45981</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="5">
-        <v>45663</v>
-      </c>
-      <c r="J33" s="5">
-        <v>45674</v>
-      </c>
-      <c r="K33" s="6">
-        <v>12</v>
-      </c>
-      <c r="L33" s="5">
-        <v>45901</v>
-      </c>
-      <c r="M33" s="5">
-        <v>45918</v>
-      </c>
-      <c r="N33" s="6">
-        <v>18</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6" t="s">
+      <c r="A33" s="7">
+        <v>4606100</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="8">
+        <v>45349</v>
+      </c>
+      <c r="D33" s="8">
+        <v>45715</v>
+      </c>
+      <c r="E33" s="8">
+        <v>46079</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="8">
+        <v>45798</v>
+      </c>
+      <c r="J33" s="8">
+        <v>45813</v>
+      </c>
+      <c r="K33" s="9">
+        <v>16</v>
+      </c>
+      <c r="L33" s="8">
+        <v>45917</v>
+      </c>
+      <c r="M33" s="8">
+        <v>45923</v>
+      </c>
+      <c r="N33" s="9">
+        <v>7</v>
+      </c>
+      <c r="O33" s="8">
+        <v>46029</v>
+      </c>
+      <c r="P33" s="8">
+        <v>46035</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>7</v>
+      </c>
+      <c r="R33" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>2415735</v>
+        <v>4606308</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C34" s="5">
-        <v>45505</v>
+        <v>45349</v>
       </c>
       <c r="D34" s="5">
+        <v>45715</v>
+      </c>
+      <c r="E34" s="5">
+        <v>46079</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="5">
+        <v>45866</v>
+      </c>
+      <c r="J34" s="5">
         <v>45870</v>
       </c>
-      <c r="E34" s="5">
-        <v>46234</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="5">
-        <v>46029</v>
-      </c>
-      <c r="J34" s="5">
-        <v>46050</v>
-      </c>
       <c r="K34" s="6">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="L34" s="5">
-        <v>46195</v>
+        <v>45908</v>
       </c>
       <c r="M34" s="5">
-        <v>46202</v>
+        <v>45922</v>
       </c>
       <c r="N34" s="6">
-        <v>8</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="O34" s="5">
+        <v>46055</v>
+      </c>
+      <c r="P34" s="5">
+        <v>46064</v>
       </c>
       <c r="Q34" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R34" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>2475130</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="5">
-        <v>45538</v>
-      </c>
-      <c r="D35" s="5">
-        <v>45903</v>
-      </c>
-      <c r="E35" s="5">
-        <v>46267</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="5">
-        <v>45929</v>
-      </c>
-      <c r="J35" s="5">
-        <v>45958</v>
-      </c>
-      <c r="K35" s="6">
-        <v>30</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6" t="s">
+      <c r="A35" s="7">
+        <v>2551014</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45341</v>
+      </c>
+      <c r="D35" s="8">
+        <v>45707</v>
+      </c>
+      <c r="E35" s="8">
+        <v>46071</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="8">
+        <v>45712</v>
+      </c>
+      <c r="J35" s="8">
+        <v>45716</v>
+      </c>
+      <c r="K35" s="9">
+        <v>5</v>
+      </c>
+      <c r="L35" s="8">
+        <v>45971</v>
+      </c>
+      <c r="M35" s="8">
+        <v>45995</v>
+      </c>
+      <c r="N35" s="9">
+        <v>25</v>
+      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>4609269</v>
+        <v>9634222</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5">
-        <v>45341</v>
+        <v>45573</v>
       </c>
       <c r="D36" s="5">
-        <v>45707</v>
+        <v>45938</v>
       </c>
       <c r="E36" s="5">
-        <v>46071</v>
+        <v>46302</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="5">
-        <v>45775</v>
+        <v>45980</v>
       </c>
       <c r="J36" s="5">
-        <v>45779</v>
+        <v>46009</v>
       </c>
       <c r="K36" s="6">
-        <v>5</v>
-      </c>
-      <c r="L36" s="5">
-        <v>45945</v>
-      </c>
-      <c r="M36" s="5">
-        <v>45959</v>
-      </c>
-      <c r="N36" s="6">
-        <v>15</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>9602144</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="5">
-        <v>45297</v>
-      </c>
-      <c r="D37" s="5">
-        <v>45663</v>
-      </c>
-      <c r="E37" s="5">
-        <v>46027</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="5">
-        <v>45771</v>
-      </c>
-      <c r="J37" s="5">
-        <v>45776</v>
-      </c>
-      <c r="K37" s="6">
-        <v>6</v>
-      </c>
-      <c r="L37" s="5">
-        <v>45945</v>
-      </c>
-      <c r="M37" s="5">
-        <v>45954</v>
-      </c>
-      <c r="N37" s="6">
-        <v>10</v>
-      </c>
-      <c r="O37" s="5">
-        <v>46001</v>
-      </c>
-      <c r="P37" s="5">
-        <v>46014</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>14</v>
-      </c>
-      <c r="R37" s="6" t="s">
+      <c r="A37" s="7">
+        <v>2415735</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="8">
+        <v>45505</v>
+      </c>
+      <c r="D37" s="8">
+        <v>45870</v>
+      </c>
+      <c r="E37" s="8">
+        <v>46234</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="8">
+        <v>46029</v>
+      </c>
+      <c r="J37" s="8">
+        <v>46050</v>
+      </c>
+      <c r="K37" s="9">
+        <v>22</v>
+      </c>
+      <c r="L37" s="8">
+        <v>46195</v>
+      </c>
+      <c r="M37" s="8">
+        <v>46202</v>
+      </c>
+      <c r="N37" s="9">
+        <v>8</v>
+      </c>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>2460800</v>
+        <v>2475130</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C38" s="5">
-        <v>45357</v>
+        <v>45538</v>
       </c>
       <c r="D38" s="5">
-        <v>45722</v>
+        <v>45903</v>
       </c>
       <c r="E38" s="5">
-        <v>46086</v>
+        <v>46267</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>18</v>
@@ -3236,168 +3081,370 @@
         <v>17</v>
       </c>
       <c r="I38" s="5">
-        <v>45951</v>
+        <v>45929</v>
       </c>
       <c r="J38" s="5">
-        <v>45980</v>
+        <v>45958</v>
       </c>
       <c r="K38" s="6">
         <v>30</v>
       </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0</v>
-      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
       <c r="R38" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
+      <c r="A39" s="7">
+        <v>9642258</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="8">
+        <v>45393</v>
+      </c>
+      <c r="D39" s="8">
+        <v>45758</v>
+      </c>
+      <c r="E39" s="8">
+        <v>46122</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="8">
+        <v>46090</v>
+      </c>
+      <c r="J39" s="8">
+        <v>46119</v>
+      </c>
+      <c r="K39" s="9">
+        <v>30</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>4604589</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45519</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45884</v>
+      </c>
+      <c r="E40" s="5">
+        <v>46248</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="5">
+        <v>46007</v>
+      </c>
+      <c r="J40" s="5">
+        <v>46024</v>
+      </c>
+      <c r="K40" s="6">
+        <v>18</v>
+      </c>
+      <c r="L40" s="5">
+        <v>46118</v>
+      </c>
+      <c r="M40" s="5">
+        <v>46129</v>
+      </c>
+      <c r="N40" s="6">
+        <v>12</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
+      <c r="A41" s="7">
+        <v>4609269</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="8">
+        <v>45341</v>
+      </c>
+      <c r="D41" s="8">
+        <v>45707</v>
+      </c>
+      <c r="E41" s="8">
+        <v>46071</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="8">
+        <v>45775</v>
+      </c>
+      <c r="J41" s="8">
+        <v>45779</v>
+      </c>
+      <c r="K41" s="9">
+        <v>5</v>
+      </c>
+      <c r="L41" s="8">
+        <v>45945</v>
+      </c>
+      <c r="M41" s="8">
+        <v>45959</v>
+      </c>
+      <c r="N41" s="9">
+        <v>15</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>1</v>
+      <c r="A42" s="4">
+        <v>9602144</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45297</v>
+      </c>
+      <c r="D42" s="5">
+        <v>45663</v>
+      </c>
+      <c r="E42" s="5">
+        <v>46027</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="5">
+        <v>45771</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45776</v>
+      </c>
+      <c r="K42" s="6">
+        <v>6</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45945</v>
+      </c>
+      <c r="M42" s="5">
+        <v>45954</v>
+      </c>
+      <c r="N42" s="6">
+        <v>10</v>
+      </c>
+      <c r="O42" s="5">
+        <v>46001</v>
+      </c>
+      <c r="P42" s="5">
+        <v>46014</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>14</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>1381625</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="8">
+        <v>45546</v>
+      </c>
+      <c r="D43" s="8">
+        <v>45911</v>
+      </c>
+      <c r="E43" s="8">
+        <v>46275</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="8">
+        <v>46072</v>
+      </c>
+      <c r="J43" s="8">
+        <v>46101</v>
+      </c>
+      <c r="K43" s="9">
+        <v>30</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>4607031</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D44" s="5">
+        <v>45876</v>
+      </c>
+      <c r="E44" s="5">
+        <v>46240</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="5">
+        <v>45985</v>
+      </c>
+      <c r="J44" s="5">
+        <v>45989</v>
+      </c>
+      <c r="K44" s="6">
+        <v>5</v>
+      </c>
+      <c r="L44" s="5">
+        <v>46146</v>
+      </c>
+      <c r="M44" s="5">
+        <v>46165</v>
+      </c>
+      <c r="N44" s="6">
+        <v>20</v>
+      </c>
+      <c r="O44" s="5">
+        <v>46230</v>
+      </c>
+      <c r="P44" s="5">
+        <v>46234</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>5</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>2460800</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="8">
+        <v>45357</v>
+      </c>
+      <c r="D45" s="8">
+        <v>45722</v>
+      </c>
+      <c r="E45" s="8">
+        <v>46086</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="8">
+        <v>45951</v>
+      </c>
+      <c r="J45" s="8">
+        <v>45980</v>
+      </c>
+      <c r="K45" s="9">
+        <v>30</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R42" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}"/>
+  <autoFilter ref="A1:R38" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="javascript:__doPostBack('grwRegistros','Sort$Matricula')" xr:uid="{0CCEC443-13CC-49FB-A7F9-55533D6F6E17}"/>
     <hyperlink ref="B1" r:id="rId2" display="javascript:__doPostBack('grwRegistros','Sort$NomeEmpregado')" xr:uid="{DD3708AD-78DA-4F25-9430-DDD7CC4B6002}"/>

--- a/Férias.xlsx
+++ b/Férias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/vinicius_s_duarte_petrobras_com_br/Documents/Área de Trabalho/Teste_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D86C7B2-9A25-4ECF-9A15-EE926EB6CDF4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B40632-65A7-4794-AE8C-85D8A9BC20B3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4FA6F3C-6A0B-4FBC-94DA-2FC748905E27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="61">
   <si>
     <t>Matrícula</t>
   </si>
@@ -101,18 +101,12 @@
     <t>Anderson José Soares</t>
   </si>
   <si>
-    <t>Aureo Alvarenga Braga Junior</t>
-  </si>
-  <si>
     <t>CAMILA RANUCCI DE LUCA</t>
   </si>
   <si>
     <t>Cezar Henrique Menezes</t>
   </si>
   <si>
-    <t>DANIEL AUGUSTO DINIZ SOUZA BUENO</t>
-  </si>
-  <si>
     <t>DELCIO DA SILVA PIMENTEL FILHO</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Felipe Bernardo Cahet</t>
   </si>
   <si>
-    <t>GABRIEL BOAVENTURA ANDRADE</t>
-  </si>
-  <si>
     <t>Igor de Almeida</t>
   </si>
   <si>
@@ -158,12 +149,6 @@
     <t>Jefferson Barbosa Nogueira</t>
   </si>
   <si>
-    <t>JOÃO EDUARDO COSTA GOMES</t>
-  </si>
-  <si>
-    <t>Leandro Eloy da Silva</t>
-  </si>
-  <si>
     <t>LUCAS EDUARDO OLIVEIRA CANDIDO</t>
   </si>
   <si>
@@ -188,18 +173,9 @@
     <t>Rafael Sales Teles</t>
   </si>
   <si>
-    <t>Raul Alende Garcia Costa</t>
-  </si>
-  <si>
-    <t>RODRIGO LOPES ALVES DAMICO</t>
-  </si>
-  <si>
     <t>RUI REIS DIAS JARDIM</t>
   </si>
   <si>
-    <t>Wellington Pereira Marques</t>
-  </si>
-  <si>
     <t>Andre Luis Rodrigues Larangeira</t>
   </si>
   <si>
@@ -228,13 +204,28 @@
   </si>
   <si>
     <t>TAYNAN ROGER SILVA</t>
+  </si>
+  <si>
+    <t>Alexandre Rana Ramos</t>
+  </si>
+  <si>
+    <t>Aurelio Rodrigues Vieira</t>
+  </si>
+  <si>
+    <t>Flavio Marinho de Souza</t>
+  </si>
+  <si>
+    <t>Rodrigo Scoralick Fontoura do Nascimento</t>
+  </si>
+  <si>
+    <t>Willian Cristian de Oliveira Silva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,14 +382,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,18 +563,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFEEF2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDF5F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -767,7 +740,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
@@ -776,23 +749,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1171,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1166,7 @@
     <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1255,437 +1222,425 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>4606036</v>
+        <v>9845351</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5">
-        <v>45349</v>
+        <v>45505</v>
       </c>
       <c r="D2" s="5">
-        <v>45715</v>
+        <v>45870</v>
       </c>
       <c r="E2" s="5">
-        <v>46079</v>
+        <v>46234</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5">
-        <v>45889</v>
+        <v>46048</v>
       </c>
       <c r="J2" s="5">
-        <v>45902</v>
+        <v>46067</v>
       </c>
       <c r="K2" s="6">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5">
-        <v>46009</v>
-      </c>
-      <c r="M2" s="5">
-        <v>46024</v>
-      </c>
-      <c r="N2" s="6">
-        <v>16</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>9612082</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45394</v>
-      </c>
-      <c r="D3" s="8">
-        <v>45759</v>
-      </c>
-      <c r="E3" s="8">
-        <v>46123</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8">
-        <v>45908</v>
-      </c>
-      <c r="J3" s="8">
-        <v>45917</v>
-      </c>
-      <c r="K3" s="9">
-        <v>10</v>
-      </c>
-      <c r="L3" s="8">
-        <v>46006</v>
-      </c>
-      <c r="M3" s="8">
-        <v>46010</v>
-      </c>
-      <c r="N3" s="9">
-        <v>5</v>
-      </c>
-      <c r="O3" s="8">
-        <v>46027</v>
-      </c>
-      <c r="P3" s="8">
-        <v>46041</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>15</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="A3" s="4">
+        <v>4606036</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45349</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45715</v>
+      </c>
+      <c r="E3" s="5">
+        <v>46079</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45889</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45902</v>
+      </c>
+      <c r="K3" s="6">
+        <v>14</v>
+      </c>
+      <c r="L3" s="5">
+        <v>46020</v>
+      </c>
+      <c r="M3" s="5">
+        <v>46035</v>
+      </c>
+      <c r="N3" s="6">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
+        <v>9612082</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45394</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45759</v>
+      </c>
+      <c r="E4" s="5">
+        <v>46123</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45908</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45917</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5">
+        <v>46006</v>
+      </c>
+      <c r="M4" s="5">
+        <v>46010</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>46027</v>
+      </c>
+      <c r="P4" s="5">
+        <v>46041</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>15</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>9724817</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5">
         <v>45479</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>45844</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>46208</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5">
         <v>46174</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="5">
         <v>46193</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K5" s="6">
         <v>20</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1386344</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8">
-        <v>45574</v>
-      </c>
-      <c r="D5" s="8">
-        <v>45939</v>
-      </c>
-      <c r="E5" s="8">
-        <v>46303</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="8">
-        <v>45943</v>
-      </c>
-      <c r="J5" s="8">
-        <v>45972</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1386288</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45637</v>
+      </c>
+      <c r="D6" s="5">
+        <v>46002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>46366</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5">
+        <v>46008</v>
+      </c>
+      <c r="J6" s="5">
+        <v>46037</v>
+      </c>
+      <c r="K6" s="6">
         <v>30</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4606399</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5">
-        <v>45349</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45715</v>
-      </c>
-      <c r="E6" s="5">
-        <v>46079</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45908</v>
-      </c>
-      <c r="J6" s="5">
-        <v>45925</v>
-      </c>
-      <c r="K6" s="6">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5">
-        <v>45985</v>
-      </c>
-      <c r="M6" s="5">
-        <v>45996</v>
-      </c>
-      <c r="N6" s="6">
-        <v>12</v>
-      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>9643359</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8">
-        <v>45393</v>
-      </c>
-      <c r="D7" s="8">
-        <v>45758</v>
-      </c>
-      <c r="E7" s="8">
-        <v>46122</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="8">
-        <v>46006</v>
-      </c>
-      <c r="J7" s="8">
-        <v>46035</v>
-      </c>
-      <c r="K7" s="9">
-        <v>30</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9" t="s">
+      <c r="A7" s="4">
+        <v>4606399</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45349</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45715</v>
+      </c>
+      <c r="E7" s="5">
+        <v>46079</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45908</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45925</v>
+      </c>
+      <c r="K7" s="6">
+        <v>18</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45985</v>
+      </c>
+      <c r="M7" s="5">
+        <v>45996</v>
+      </c>
+      <c r="N7" s="6">
+        <v>12</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>2550029</v>
+        <v>9643359</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5">
-        <v>45341</v>
+        <v>45393</v>
       </c>
       <c r="D8" s="5">
-        <v>45707</v>
+        <v>45758</v>
       </c>
       <c r="E8" s="5">
-        <v>46071</v>
+        <v>46122</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5">
-        <v>45740</v>
+        <v>46006</v>
       </c>
       <c r="J8" s="5">
-        <v>45744</v>
+        <v>46035</v>
       </c>
       <c r="K8" s="6">
-        <v>5</v>
-      </c>
-      <c r="L8" s="5">
-        <v>45782</v>
-      </c>
-      <c r="M8" s="5">
-        <v>45787</v>
-      </c>
-      <c r="N8" s="6">
-        <v>6</v>
-      </c>
-      <c r="O8" s="5">
-        <v>45950</v>
-      </c>
-      <c r="P8" s="5">
-        <v>45968</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>4606673</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8">
-        <v>45455</v>
-      </c>
-      <c r="D9" s="8">
-        <v>45820</v>
-      </c>
-      <c r="E9" s="8">
-        <v>46184</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="8">
-        <v>45824</v>
-      </c>
-      <c r="J9" s="8">
-        <v>45828</v>
-      </c>
-      <c r="K9" s="9">
-        <v>5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>46034</v>
-      </c>
-      <c r="M9" s="8">
-        <v>46048</v>
-      </c>
-      <c r="N9" s="9">
-        <v>15</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9" t="s">
+      <c r="A9" s="4">
+        <v>9643359</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45758</v>
+      </c>
+      <c r="D9" s="5">
+        <v>46123</v>
+      </c>
+      <c r="E9" s="5">
+        <v>46487</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="5">
+        <v>46211</v>
+      </c>
+      <c r="J9" s="5">
+        <v>46240</v>
+      </c>
+      <c r="K9" s="6">
+        <v>30</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>4608474</v>
+        <v>4606673</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5">
-        <v>45617</v>
+        <v>45455</v>
       </c>
       <c r="D10" s="5">
-        <v>45982</v>
+        <v>45820</v>
       </c>
       <c r="E10" s="5">
-        <v>46346</v>
+        <v>46184</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="5">
-        <v>46006</v>
+        <v>45824</v>
       </c>
       <c r="J10" s="5">
-        <v>46035</v>
+        <v>45828</v>
       </c>
       <c r="K10" s="6">
-        <v>30</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>46034</v>
+      </c>
+      <c r="M10" s="5">
+        <v>46048</v>
+      </c>
+      <c r="N10" s="6">
+        <v>15</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1694,70 +1649,64 @@
       </c>
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4604623</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8">
-        <v>45519</v>
-      </c>
-      <c r="D11" s="8">
-        <v>45884</v>
-      </c>
-      <c r="E11" s="8">
-        <v>46248</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="8">
-        <v>46001</v>
-      </c>
-      <c r="J11" s="8">
-        <v>46021</v>
-      </c>
-      <c r="K11" s="9">
-        <v>21</v>
-      </c>
-      <c r="L11" s="8">
-        <v>46118</v>
-      </c>
-      <c r="M11" s="8">
-        <v>46126</v>
-      </c>
-      <c r="N11" s="9">
-        <v>9</v>
-      </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="s">
+      <c r="A11" s="4">
+        <v>4608474</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45617</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45982</v>
+      </c>
+      <c r="E11" s="5">
+        <v>46346</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5">
+        <v>46006</v>
+      </c>
+      <c r="J11" s="5">
+        <v>46035</v>
+      </c>
+      <c r="K11" s="6">
+        <v>30</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>9886449</v>
+        <v>4604623</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5">
-        <v>45500</v>
+        <v>45519</v>
       </c>
       <c r="D12" s="5">
-        <v>45865</v>
+        <v>45884</v>
       </c>
       <c r="E12" s="5">
-        <v>46229</v>
+        <v>46248</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>18</v>
@@ -1769,22 +1718,22 @@
         <v>18</v>
       </c>
       <c r="I12" s="5">
-        <v>46076</v>
+        <v>46001</v>
       </c>
       <c r="J12" s="5">
-        <v>46087</v>
+        <v>46021</v>
       </c>
       <c r="K12" s="6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L12" s="5">
-        <v>46210</v>
+        <v>46118</v>
       </c>
       <c r="M12" s="5">
-        <v>46227</v>
+        <v>46126</v>
       </c>
       <c r="N12" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1794,76 +1743,70 @@
       </c>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>4606078</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8">
-        <v>45349</v>
-      </c>
-      <c r="D13" s="8">
-        <v>45715</v>
-      </c>
-      <c r="E13" s="8">
-        <v>46079</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="8">
-        <v>45831</v>
-      </c>
-      <c r="J13" s="8">
-        <v>45845</v>
-      </c>
-      <c r="K13" s="9">
-        <v>15</v>
-      </c>
-      <c r="L13" s="8">
-        <v>45936</v>
-      </c>
-      <c r="M13" s="8">
-        <v>45945</v>
-      </c>
-      <c r="N13" s="9">
-        <v>10</v>
-      </c>
-      <c r="O13" s="8">
-        <v>45985</v>
-      </c>
-      <c r="P13" s="8">
-        <v>45989</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>5</v>
-      </c>
-      <c r="R13" s="9" t="s">
+      <c r="A13" s="4">
+        <v>9886449</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45500</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45865</v>
+      </c>
+      <c r="E13" s="5">
+        <v>46229</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5">
+        <v>46076</v>
+      </c>
+      <c r="J13" s="5">
+        <v>46087</v>
+      </c>
+      <c r="K13" s="6">
+        <v>12</v>
+      </c>
+      <c r="L13" s="5">
+        <v>46210</v>
+      </c>
+      <c r="M13" s="5">
+        <v>46227</v>
+      </c>
+      <c r="N13" s="6">
+        <v>18</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>4609742</v>
+        <v>4606078</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
-        <v>45383</v>
+        <v>45349</v>
       </c>
       <c r="D14" s="5">
-        <v>45748</v>
+        <v>45715</v>
       </c>
       <c r="E14" s="5">
-        <v>46112</v>
+        <v>46079</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>17</v>
@@ -1875,28 +1818,28 @@
         <v>18</v>
       </c>
       <c r="I14" s="5">
+        <v>45831</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45845</v>
+      </c>
+      <c r="K14" s="6">
+        <v>15</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45936</v>
+      </c>
+      <c r="M14" s="5">
         <v>45945</v>
       </c>
-      <c r="J14" s="5">
-        <v>45954</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="N14" s="6">
         <v>10</v>
       </c>
-      <c r="L14" s="5">
-        <v>46000</v>
-      </c>
-      <c r="M14" s="5">
-        <v>46014</v>
-      </c>
-      <c r="N14" s="6">
-        <v>15</v>
-      </c>
       <c r="O14" s="5">
-        <v>46062</v>
+        <v>45985</v>
       </c>
       <c r="P14" s="5">
-        <v>46066</v>
+        <v>45989</v>
       </c>
       <c r="Q14" s="6">
         <v>5</v>
@@ -1905,299 +1848,311 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>9814374</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="8">
-        <v>45396</v>
-      </c>
-      <c r="D15" s="8">
-        <v>45761</v>
-      </c>
-      <c r="E15" s="8">
-        <v>46125</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="8">
-        <v>45946</v>
-      </c>
-      <c r="J15" s="8">
-        <v>45975</v>
-      </c>
-      <c r="K15" s="9">
-        <v>30</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9" t="s">
-        <v>56</v>
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>4609742</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45383</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45748</v>
+      </c>
+      <c r="E15" s="5">
+        <v>46112</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45945</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45954</v>
+      </c>
+      <c r="K15" s="6">
+        <v>10</v>
+      </c>
+      <c r="L15" s="5">
+        <v>46000</v>
+      </c>
+      <c r="M15" s="5">
+        <v>46014</v>
+      </c>
+      <c r="N15" s="6">
+        <v>15</v>
+      </c>
+      <c r="O15" s="5">
+        <v>46062</v>
+      </c>
+      <c r="P15" s="5">
+        <v>46066</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>5</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <v>9814374</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45396</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45761</v>
+      </c>
+      <c r="E16" s="5">
+        <v>46125</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45964</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45993</v>
+      </c>
+      <c r="K16" s="6">
+        <v>30</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>4606694</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45455</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45820</v>
+      </c>
+      <c r="E17" s="5">
+        <v>46184</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45950</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45960</v>
+      </c>
+      <c r="K17" s="6">
+        <v>11</v>
+      </c>
+      <c r="L17" s="5">
+        <v>46076</v>
+      </c>
+      <c r="M17" s="5">
+        <v>46080</v>
+      </c>
+      <c r="N17" s="6">
+        <v>5</v>
+      </c>
+      <c r="O17" s="5">
+        <v>46146</v>
+      </c>
+      <c r="P17" s="5">
+        <v>46159</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>14</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>9885545</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45469</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45834</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46198</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45936</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45945</v>
+      </c>
+      <c r="K18" s="6">
+        <v>10</v>
+      </c>
+      <c r="L18" s="5">
+        <v>46104</v>
+      </c>
+      <c r="M18" s="5">
+        <v>46108</v>
+      </c>
+      <c r="N18" s="6">
+        <v>5</v>
+      </c>
+      <c r="O18" s="5">
+        <v>46174</v>
+      </c>
+      <c r="P18" s="5">
+        <v>46188</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>15</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4609453</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5">
-        <v>45455</v>
-      </c>
-      <c r="D16" s="5">
-        <v>45820</v>
-      </c>
-      <c r="E16" s="5">
-        <v>46184</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5">
-        <v>45950</v>
-      </c>
-      <c r="J16" s="5">
-        <v>45960</v>
-      </c>
-      <c r="K16" s="6">
-        <v>11</v>
-      </c>
-      <c r="L16" s="5">
-        <v>46076</v>
-      </c>
-      <c r="M16" s="5">
-        <v>46080</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="C19" s="5">
+        <v>45383</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45748</v>
+      </c>
+      <c r="E19" s="5">
+        <v>46112</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45838</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45842</v>
+      </c>
+      <c r="K19" s="6">
         <v>5</v>
       </c>
-      <c r="O16" s="5">
-        <v>46146</v>
-      </c>
-      <c r="P16" s="5">
-        <v>46159</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>14</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>9885545</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="8">
-        <v>45469</v>
-      </c>
-      <c r="D17" s="8">
-        <v>45834</v>
-      </c>
-      <c r="E17" s="8">
-        <v>46198</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="8">
-        <v>45936</v>
-      </c>
-      <c r="J17" s="8">
-        <v>45945</v>
-      </c>
-      <c r="K17" s="9">
-        <v>10</v>
-      </c>
-      <c r="L17" s="8">
-        <v>46008</v>
-      </c>
-      <c r="M17" s="8">
-        <v>46022</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="L19" s="5">
+        <v>46043</v>
+      </c>
+      <c r="M19" s="5">
+        <v>46057</v>
+      </c>
+      <c r="N19" s="6">
         <v>15</v>
       </c>
-      <c r="O17" s="8">
-        <v>46181</v>
-      </c>
-      <c r="P17" s="8">
-        <v>46185</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>5</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>4609453</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45383</v>
-      </c>
-      <c r="D18" s="5">
-        <v>45748</v>
-      </c>
-      <c r="E18" s="5">
-        <v>46112</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="5">
-        <v>45838</v>
-      </c>
-      <c r="J18" s="5">
-        <v>45842</v>
-      </c>
-      <c r="K18" s="6">
-        <v>5</v>
-      </c>
-      <c r="L18" s="5">
-        <v>46043</v>
-      </c>
-      <c r="M18" s="5">
-        <v>46057</v>
-      </c>
-      <c r="N18" s="6">
-        <v>15</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>2493288</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="8">
-        <v>45414</v>
-      </c>
-      <c r="D19" s="8">
-        <v>45779</v>
-      </c>
-      <c r="E19" s="8">
-        <v>46143</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="8">
-        <v>45894</v>
-      </c>
-      <c r="J19" s="8">
-        <v>45911</v>
-      </c>
-      <c r="K19" s="9">
-        <v>18</v>
-      </c>
-      <c r="L19" s="8">
-        <v>46055</v>
-      </c>
-      <c r="M19" s="8">
-        <v>46066</v>
-      </c>
-      <c r="N19" s="9">
-        <v>12</v>
-      </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9" t="s">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>4606426</v>
+        <v>2493288</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5">
-        <v>45349</v>
+        <v>45414</v>
       </c>
       <c r="D20" s="5">
-        <v>45715</v>
+        <v>45779</v>
       </c>
       <c r="E20" s="5">
-        <v>46079</v>
+        <v>46143</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="5">
-        <v>45908</v>
+        <v>45894</v>
       </c>
       <c r="J20" s="5">
-        <v>45937</v>
+        <v>45911</v>
       </c>
       <c r="K20" s="6">
-        <v>30</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="L20" s="5">
+        <v>46055</v>
+      </c>
+      <c r="M20" s="5">
+        <v>46066</v>
+      </c>
+      <c r="N20" s="6">
+        <v>12</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2206,179 +2161,167 @@
       </c>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>9759290</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="8">
-        <v>45603</v>
-      </c>
-      <c r="D21" s="8">
-        <v>45968</v>
-      </c>
-      <c r="E21" s="8">
-        <v>46332</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="8">
-        <v>46043</v>
-      </c>
-      <c r="J21" s="8">
-        <v>46059</v>
-      </c>
-      <c r="K21" s="9">
-        <v>17</v>
-      </c>
-      <c r="L21" s="8">
-        <v>46226</v>
-      </c>
-      <c r="M21" s="8">
-        <v>46233</v>
-      </c>
-      <c r="N21" s="9">
-        <v>8</v>
-      </c>
-      <c r="O21" s="8">
-        <v>46300</v>
-      </c>
-      <c r="P21" s="8">
-        <v>46304</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>5</v>
-      </c>
-      <c r="R21" s="9" t="s">
+      <c r="A21" s="4">
+        <v>9683150</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45690</v>
+      </c>
+      <c r="D21" s="5">
+        <v>46055</v>
+      </c>
+      <c r="E21" s="5">
+        <v>46419</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5">
+        <v>46055</v>
+      </c>
+      <c r="J21" s="5">
+        <v>46074</v>
+      </c>
+      <c r="K21" s="6">
+        <v>20</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
+        <v>9759290</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45603</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45968</v>
+      </c>
+      <c r="E22" s="5">
+        <v>46332</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="5">
+        <v>46043</v>
+      </c>
+      <c r="J22" s="5">
+        <v>46059</v>
+      </c>
+      <c r="K22" s="6">
+        <v>17</v>
+      </c>
+      <c r="L22" s="5">
+        <v>46226</v>
+      </c>
+      <c r="M22" s="5">
+        <v>46233</v>
+      </c>
+      <c r="N22" s="6">
+        <v>8</v>
+      </c>
+      <c r="O22" s="5">
+        <v>46300</v>
+      </c>
+      <c r="P22" s="5">
+        <v>46304</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>5</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>1385894</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5">
         <v>45573</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>45938</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>46302</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="F23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="5">
         <v>46230</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <v>46259</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K23" s="6">
         <v>30</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>9763566</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="8">
-        <v>45268</v>
-      </c>
-      <c r="D23" s="8">
-        <v>45634</v>
-      </c>
-      <c r="E23" s="8">
-        <v>45998</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="8">
-        <v>45665</v>
-      </c>
-      <c r="J23" s="8">
-        <v>45674</v>
-      </c>
-      <c r="K23" s="9">
-        <v>10</v>
-      </c>
-      <c r="L23" s="8">
-        <v>45782</v>
-      </c>
-      <c r="M23" s="8">
-        <v>45796</v>
-      </c>
-      <c r="N23" s="9">
-        <v>15</v>
-      </c>
-      <c r="O23" s="8">
-        <v>45985</v>
-      </c>
-      <c r="P23" s="8">
-        <v>45989</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>5</v>
-      </c>
-      <c r="R23" s="9" t="s">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>9897403</v>
+        <v>9763566</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
-        <v>45302</v>
+        <v>45268</v>
       </c>
       <c r="D24" s="5">
-        <v>45668</v>
+        <v>45634</v>
       </c>
       <c r="E24" s="5">
-        <v>46032</v>
+        <v>45998</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>18</v>
@@ -2387,28 +2330,28 @@
         <v>18</v>
       </c>
       <c r="I24" s="5">
-        <v>45943</v>
+        <v>45665</v>
       </c>
       <c r="J24" s="5">
-        <v>45956</v>
+        <v>45674</v>
       </c>
       <c r="K24" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L24" s="5">
+        <v>45782</v>
+      </c>
+      <c r="M24" s="5">
+        <v>45796</v>
+      </c>
+      <c r="N24" s="6">
+        <v>15</v>
+      </c>
+      <c r="O24" s="5">
         <v>45985</v>
       </c>
-      <c r="M24" s="5">
-        <v>45995</v>
-      </c>
-      <c r="N24" s="6">
-        <v>11</v>
-      </c>
-      <c r="O24" s="5">
-        <v>46027</v>
-      </c>
       <c r="P24" s="5">
-        <v>46031</v>
+        <v>45989</v>
       </c>
       <c r="Q24" s="6">
         <v>5</v>
@@ -2418,52 +2361,58 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>4606309</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="8">
-        <v>45349</v>
-      </c>
-      <c r="D25" s="8">
-        <v>45715</v>
-      </c>
-      <c r="E25" s="8">
-        <v>46079</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="8">
-        <v>45889</v>
-      </c>
-      <c r="J25" s="8">
-        <v>45903</v>
-      </c>
-      <c r="K25" s="9">
-        <v>15</v>
-      </c>
-      <c r="L25" s="8">
-        <v>45964</v>
-      </c>
-      <c r="M25" s="8">
-        <v>45968</v>
-      </c>
-      <c r="N25" s="9">
+      <c r="A25" s="4">
+        <v>9897403</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45302</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45668</v>
+      </c>
+      <c r="E25" s="5">
+        <v>46032</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="5">
+        <v>45943</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45956</v>
+      </c>
+      <c r="K25" s="6">
+        <v>14</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45985</v>
+      </c>
+      <c r="M25" s="5">
+        <v>45995</v>
+      </c>
+      <c r="N25" s="6">
+        <v>11</v>
+      </c>
+      <c r="O25" s="5">
+        <v>46027</v>
+      </c>
+      <c r="P25" s="5">
+        <v>46031</v>
+      </c>
+      <c r="Q25" s="6">
         <v>5</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2472,7 +2421,7 @@
         <v>4606246</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C26" s="5">
         <v>45349</v>
@@ -2512,64 +2461,64 @@
       </c>
     </row>
     <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>4608684</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5">
         <v>45617</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>45982</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>46346</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="5">
         <v>46036</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="5">
         <v>46065</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="6">
         <v>30</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9" t="s">
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>229316</v>
+        <v>4606323</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5">
-        <v>45301</v>
+        <v>45349</v>
       </c>
       <c r="D28" s="5">
-        <v>45667</v>
+        <v>45715</v>
       </c>
       <c r="E28" s="5">
-        <v>46031</v>
+        <v>46079</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>18</v>
@@ -2578,20 +2527,26 @@
         <v>18</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="5">
-        <v>45936</v>
+        <v>45859</v>
       </c>
       <c r="J28" s="5">
-        <v>45965</v>
+        <v>45870</v>
       </c>
       <c r="K28" s="6">
-        <v>30</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="L28" s="5">
+        <v>46013</v>
+      </c>
+      <c r="M28" s="5">
+        <v>46030</v>
+      </c>
+      <c r="N28" s="6">
+        <v>18</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -2600,70 +2555,70 @@
       </c>
     </row>
     <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>4606323</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="8">
-        <v>45349</v>
-      </c>
-      <c r="D29" s="8">
-        <v>45715</v>
-      </c>
-      <c r="E29" s="8">
-        <v>46079</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="8">
-        <v>45859</v>
-      </c>
-      <c r="J29" s="8">
-        <v>45870</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="A29" s="4">
+        <v>4612228</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45962</v>
+      </c>
+      <c r="E29" s="5">
+        <v>46326</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="5">
+        <v>45985</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45996</v>
+      </c>
+      <c r="K29" s="6">
         <v>12</v>
       </c>
-      <c r="L29" s="8">
-        <v>46013</v>
-      </c>
-      <c r="M29" s="8">
-        <v>46030</v>
-      </c>
-      <c r="N29" s="9">
-        <v>18</v>
-      </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9" t="s">
+      <c r="L29" s="5">
+        <v>46202</v>
+      </c>
+      <c r="M29" s="5">
+        <v>46219</v>
+      </c>
+      <c r="N29" s="6">
+        <v>18</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>4612228</v>
+        <v>9762281</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5">
-        <v>45597</v>
+        <v>45634</v>
       </c>
       <c r="D30" s="5">
-        <v>45962</v>
+        <v>45999</v>
       </c>
       <c r="E30" s="5">
-        <v>46326</v>
+        <v>46363</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>18</v>
@@ -2672,26 +2627,20 @@
         <v>18</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="5">
-        <v>45985</v>
+        <v>46027</v>
       </c>
       <c r="J30" s="5">
-        <v>45996</v>
+        <v>46056</v>
       </c>
       <c r="K30" s="6">
-        <v>12</v>
-      </c>
-      <c r="L30" s="5">
-        <v>46202</v>
-      </c>
-      <c r="M30" s="5">
-        <v>46219</v>
-      </c>
-      <c r="N30" s="6">
-        <v>18</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -2700,67 +2649,79 @@
       </c>
     </row>
     <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>9762281</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="8">
-        <v>45634</v>
-      </c>
-      <c r="D31" s="8">
-        <v>45999</v>
-      </c>
-      <c r="E31" s="8">
-        <v>46363</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="A31" s="4">
+        <v>2504351</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45446</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45811</v>
+      </c>
+      <c r="E31" s="5">
+        <v>46175</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="5">
+        <v>45831</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45844</v>
+      </c>
+      <c r="K31" s="6">
+        <v>14</v>
+      </c>
+      <c r="L31" s="5">
         <v>46027</v>
       </c>
-      <c r="J31" s="8">
-        <v>46056</v>
-      </c>
-      <c r="K31" s="9">
-        <v>30</v>
-      </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9" t="s">
+      <c r="M31" s="5">
+        <v>46031</v>
+      </c>
+      <c r="N31" s="6">
+        <v>5</v>
+      </c>
+      <c r="O31" s="5">
+        <v>46076</v>
+      </c>
+      <c r="P31" s="5">
+        <v>46086</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>11</v>
+      </c>
+      <c r="R31" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>2504351</v>
+        <v>4606100</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5">
-        <v>45446</v>
+        <v>45349</v>
       </c>
       <c r="D32" s="5">
-        <v>45811</v>
+        <v>45715</v>
       </c>
       <c r="E32" s="5">
-        <v>46175</v>
+        <v>46079</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>18</v>
@@ -2769,107 +2730,107 @@
         <v>18</v>
       </c>
       <c r="I32" s="5">
-        <v>45831</v>
+        <v>45798</v>
       </c>
       <c r="J32" s="5">
-        <v>45844</v>
+        <v>45813</v>
       </c>
       <c r="K32" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L32" s="5">
-        <v>46027</v>
+        <v>45917</v>
       </c>
       <c r="M32" s="5">
-        <v>46031</v>
+        <v>45923</v>
       </c>
       <c r="N32" s="6">
+        <v>7</v>
+      </c>
+      <c r="O32" s="5">
+        <v>46029</v>
+      </c>
+      <c r="P32" s="5">
+        <v>46035</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>7</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>4606308</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45349</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45715</v>
+      </c>
+      <c r="E33" s="5">
+        <v>46079</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45866</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45870</v>
+      </c>
+      <c r="K33" s="6">
         <v>5</v>
       </c>
-      <c r="O32" s="5">
-        <v>46076</v>
-      </c>
-      <c r="P32" s="5">
-        <v>46086</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>11</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>4606100</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="8">
-        <v>45349</v>
-      </c>
-      <c r="D33" s="8">
-        <v>45715</v>
-      </c>
-      <c r="E33" s="8">
-        <v>46079</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="8">
-        <v>45798</v>
-      </c>
-      <c r="J33" s="8">
-        <v>45813</v>
-      </c>
-      <c r="K33" s="9">
-        <v>16</v>
-      </c>
-      <c r="L33" s="8">
-        <v>45917</v>
-      </c>
-      <c r="M33" s="8">
-        <v>45923</v>
-      </c>
-      <c r="N33" s="9">
-        <v>7</v>
-      </c>
-      <c r="O33" s="8">
-        <v>46029</v>
-      </c>
-      <c r="P33" s="8">
-        <v>46035</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>7</v>
-      </c>
-      <c r="R33" s="9" t="s">
+      <c r="L33" s="5">
+        <v>45908</v>
+      </c>
+      <c r="M33" s="5">
+        <v>45922</v>
+      </c>
+      <c r="N33" s="6">
+        <v>15</v>
+      </c>
+      <c r="O33" s="5">
+        <v>46055</v>
+      </c>
+      <c r="P33" s="5">
+        <v>46064</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>10</v>
+      </c>
+      <c r="R33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>4606308</v>
+        <v>2551014</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5">
-        <v>45349</v>
+        <v>45341</v>
       </c>
       <c r="D34" s="5">
-        <v>45715</v>
+        <v>45707</v>
       </c>
       <c r="E34" s="5">
-        <v>46079</v>
+        <v>46071</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>17</v>
@@ -2881,123 +2842,123 @@
         <v>18</v>
       </c>
       <c r="I34" s="5">
-        <v>45866</v>
+        <v>45712</v>
       </c>
       <c r="J34" s="5">
-        <v>45870</v>
+        <v>45716</v>
       </c>
       <c r="K34" s="6">
         <v>5</v>
       </c>
       <c r="L34" s="5">
-        <v>45908</v>
+        <v>45971</v>
       </c>
       <c r="M34" s="5">
-        <v>45922</v>
+        <v>45995</v>
       </c>
       <c r="N34" s="6">
-        <v>15</v>
-      </c>
-      <c r="O34" s="5">
-        <v>46055</v>
-      </c>
-      <c r="P34" s="5">
-        <v>46064</v>
-      </c>
-      <c r="Q34" s="6">
+        <v>25</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>9634222</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45573</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45938</v>
+      </c>
+      <c r="E35" s="5">
+        <v>46302</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="5">
+        <v>46001</v>
+      </c>
+      <c r="J35" s="5">
+        <v>46010</v>
+      </c>
+      <c r="K35" s="6">
         <v>10</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>2551014</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="8">
-        <v>45341</v>
-      </c>
-      <c r="D35" s="8">
-        <v>45707</v>
-      </c>
-      <c r="E35" s="8">
-        <v>46071</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="8">
-        <v>45712</v>
-      </c>
-      <c r="J35" s="8">
-        <v>45716</v>
-      </c>
-      <c r="K35" s="9">
-        <v>5</v>
-      </c>
-      <c r="L35" s="8">
-        <v>45971</v>
-      </c>
-      <c r="M35" s="8">
-        <v>45995</v>
-      </c>
-      <c r="N35" s="9">
-        <v>25</v>
-      </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9" t="s">
+      <c r="L35" s="5">
+        <v>46084</v>
+      </c>
+      <c r="M35" s="5">
+        <v>46103</v>
+      </c>
+      <c r="N35" s="6">
+        <v>20</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>9634222</v>
+        <v>2415735</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5">
-        <v>45573</v>
+        <v>45505</v>
       </c>
       <c r="D36" s="5">
-        <v>45938</v>
+        <v>45870</v>
       </c>
       <c r="E36" s="5">
-        <v>46302</v>
+        <v>46234</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I36" s="5">
-        <v>45980</v>
+        <v>46029</v>
       </c>
       <c r="J36" s="5">
-        <v>46009</v>
+        <v>46050</v>
       </c>
       <c r="K36" s="6">
-        <v>30</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="L36" s="5">
+        <v>46195</v>
+      </c>
+      <c r="M36" s="5">
+        <v>46202</v>
+      </c>
+      <c r="N36" s="6">
+        <v>8</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -3006,92 +2967,92 @@
       </c>
     </row>
     <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>2415735</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="8">
-        <v>45505</v>
-      </c>
-      <c r="D37" s="8">
-        <v>45870</v>
-      </c>
-      <c r="E37" s="8">
-        <v>46234</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="8">
-        <v>46029</v>
-      </c>
-      <c r="J37" s="8">
-        <v>46050</v>
-      </c>
-      <c r="K37" s="9">
-        <v>22</v>
-      </c>
-      <c r="L37" s="8">
-        <v>46195</v>
-      </c>
-      <c r="M37" s="8">
-        <v>46202</v>
-      </c>
-      <c r="N37" s="9">
-        <v>8</v>
-      </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>9642258</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45393</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45758</v>
+      </c>
+      <c r="E37" s="5">
+        <v>46122</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="5">
+        <v>46090</v>
+      </c>
+      <c r="J37" s="5">
+        <v>46119</v>
+      </c>
+      <c r="K37" s="6">
+        <v>30</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>2475130</v>
+        <v>4604589</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5">
-        <v>45538</v>
+        <v>45519</v>
       </c>
       <c r="D38" s="5">
-        <v>45903</v>
+        <v>45884</v>
       </c>
       <c r="E38" s="5">
-        <v>46267</v>
+        <v>46248</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" s="5">
-        <v>45929</v>
+        <v>46007</v>
       </c>
       <c r="J38" s="5">
-        <v>45958</v>
+        <v>46024</v>
       </c>
       <c r="K38" s="6">
-        <v>30</v>
-      </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="L38" s="5">
+        <v>46118</v>
+      </c>
+      <c r="M38" s="5">
+        <v>46129</v>
+      </c>
+      <c r="N38" s="6">
+        <v>12</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -3099,65 +3060,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>9642258</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="8">
-        <v>45393</v>
-      </c>
-      <c r="D39" s="8">
-        <v>45758</v>
-      </c>
-      <c r="E39" s="8">
-        <v>46122</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="8">
-        <v>46090</v>
-      </c>
-      <c r="J39" s="8">
-        <v>46119</v>
-      </c>
-      <c r="K39" s="9">
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2448533</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45357</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45722</v>
+      </c>
+      <c r="E39" s="5">
+        <v>46086</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="5">
+        <v>45960</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45989</v>
+      </c>
+      <c r="K39" s="6">
         <v>30</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>4604589</v>
+        <v>9602144</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
-        <v>45519</v>
+        <v>45297</v>
       </c>
       <c r="D40" s="5">
-        <v>45884</v>
+        <v>45663</v>
       </c>
       <c r="E40" s="5">
-        <v>46248</v>
+        <v>46027</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>18</v>
@@ -3169,279 +3130,205 @@
         <v>18</v>
       </c>
       <c r="I40" s="5">
-        <v>46007</v>
+        <v>45771</v>
       </c>
       <c r="J40" s="5">
-        <v>46024</v>
+        <v>45776</v>
       </c>
       <c r="K40" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L40" s="5">
-        <v>46118</v>
+        <v>45945</v>
       </c>
       <c r="M40" s="5">
-        <v>46129</v>
+        <v>45954</v>
       </c>
       <c r="N40" s="6">
-        <v>12</v>
-      </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="O40" s="5">
+        <v>46001</v>
+      </c>
+      <c r="P40" s="5">
+        <v>46014</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>14</v>
+      </c>
       <c r="R40" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>4609269</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="8">
-        <v>45341</v>
-      </c>
-      <c r="D41" s="8">
-        <v>45707</v>
-      </c>
-      <c r="E41" s="8">
-        <v>46071</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="8">
-        <v>45775</v>
-      </c>
-      <c r="J41" s="8">
-        <v>45779</v>
-      </c>
-      <c r="K41" s="9">
-        <v>5</v>
-      </c>
-      <c r="L41" s="8">
-        <v>45945</v>
-      </c>
-      <c r="M41" s="8">
-        <v>45959</v>
-      </c>
-      <c r="N41" s="9">
-        <v>15</v>
-      </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9" t="s">
+      <c r="A41" s="4">
+        <v>1381625</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45546</v>
+      </c>
+      <c r="D41" s="5">
+        <v>45911</v>
+      </c>
+      <c r="E41" s="5">
+        <v>46275</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="5">
+        <v>46072</v>
+      </c>
+      <c r="J41" s="5">
+        <v>46101</v>
+      </c>
+      <c r="K41" s="6">
+        <v>30</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>9602144</v>
+        <v>4607031</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C42" s="5">
-        <v>45297</v>
+        <v>45511</v>
       </c>
       <c r="D42" s="5">
-        <v>45663</v>
+        <v>45876</v>
       </c>
       <c r="E42" s="5">
+        <v>46240</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="5">
+        <v>45985</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45989</v>
+      </c>
+      <c r="K42" s="6">
+        <v>5</v>
+      </c>
+      <c r="L42" s="5">
+        <v>46146</v>
+      </c>
+      <c r="M42" s="5">
+        <v>46165</v>
+      </c>
+      <c r="N42" s="6">
+        <v>20</v>
+      </c>
+      <c r="O42" s="5">
+        <v>46230</v>
+      </c>
+      <c r="P42" s="5">
+        <v>46234</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>5</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>9844434</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45505</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45870</v>
+      </c>
+      <c r="E43" s="5">
+        <v>46234</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="5">
         <v>46027</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="5">
-        <v>45771</v>
-      </c>
-      <c r="J42" s="5">
-        <v>45776</v>
-      </c>
-      <c r="K42" s="6">
-        <v>6</v>
-      </c>
-      <c r="L42" s="5">
-        <v>45945</v>
-      </c>
-      <c r="M42" s="5">
-        <v>45954</v>
-      </c>
-      <c r="N42" s="6">
-        <v>10</v>
-      </c>
-      <c r="O42" s="5">
-        <v>46001</v>
-      </c>
-      <c r="P42" s="5">
-        <v>46014</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>14</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>1381625</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="8">
-        <v>45546</v>
-      </c>
-      <c r="D43" s="8">
-        <v>45911</v>
-      </c>
-      <c r="E43" s="8">
-        <v>46275</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="8">
-        <v>46072</v>
-      </c>
-      <c r="J43" s="8">
-        <v>46101</v>
-      </c>
-      <c r="K43" s="9">
-        <v>30</v>
-      </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9" t="s">
+      <c r="J43" s="5">
+        <v>46038</v>
+      </c>
+      <c r="K43" s="6">
+        <v>12</v>
+      </c>
+      <c r="L43" s="5">
+        <v>46216</v>
+      </c>
+      <c r="M43" s="5">
+        <v>46233</v>
+      </c>
+      <c r="N43" s="6">
+        <v>18</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>4607031</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="5">
-        <v>45511</v>
-      </c>
-      <c r="D44" s="5">
-        <v>45876</v>
-      </c>
-      <c r="E44" s="5">
-        <v>46240</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="5">
-        <v>45985</v>
-      </c>
-      <c r="J44" s="5">
-        <v>45989</v>
-      </c>
-      <c r="K44" s="6">
-        <v>5</v>
-      </c>
-      <c r="L44" s="5">
-        <v>46146</v>
-      </c>
-      <c r="M44" s="5">
-        <v>46165</v>
-      </c>
-      <c r="N44" s="6">
-        <v>20</v>
-      </c>
-      <c r="O44" s="5">
-        <v>46230</v>
-      </c>
-      <c r="P44" s="5">
-        <v>46234</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>5</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>2460800</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="8">
-        <v>45357</v>
-      </c>
-      <c r="D45" s="8">
-        <v>45722</v>
-      </c>
-      <c r="E45" s="8">
-        <v>46086</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="8">
-        <v>45951</v>
-      </c>
-      <c r="J45" s="8">
-        <v>45980</v>
-      </c>
-      <c r="K45" s="9">
-        <v>30</v>
-      </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R38" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}"/>

--- a/Férias.xlsx
+++ b/Férias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/vinicius_s_duarte_petrobras_com_br/Documents/Área de Trabalho/Teste_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B40632-65A7-4794-AE8C-85D8A9BC20B3}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{C9AC08D9-4009-4C0A-B1F2-9AC8A478837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEC0961A-4A44-4A9A-8B72-B55C6C630473}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4FA6F3C-6A0B-4FBC-94DA-2FC748905E27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4FA6F3C-6A0B-4FBC-94DA-2FC748905E27}"/>
   </bookViews>
   <sheets>
     <sheet name="grwRegistros_DVPX_20250915_1257" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,18 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1141,12 +1152,12 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -3332,6 +3343,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R38" xr:uid="{F378EF49-324F-4C6D-9B9C-34AB9507E8B5}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="javascript:__doPostBack('grwRegistros','Sort$Matricula')" xr:uid="{0CCEC443-13CC-49FB-A7F9-55533D6F6E17}"/>
     <hyperlink ref="B1" r:id="rId2" display="javascript:__doPostBack('grwRegistros','Sort$NomeEmpregado')" xr:uid="{DD3708AD-78DA-4F25-9430-DDD7CC4B6002}"/>
